--- a/1_MD/output_data_diagramma.xlsx
+++ b/1_MD/output_data_diagramma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43a06271df63821a/Documents/Skola/2.kurss/Datu struktūras un algoritmi/Datu-strukturas-un-algoritmi/1_MD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{5C247DA8-929C-4369-AF7D-246CD82F581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11BA424A-AB71-4A42-BD61-F088F77B68BD}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{5C247DA8-929C-4369-AF7D-246CD82F581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F738B064-65F1-42D7-B07B-D9AA82E83620}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7890" yWindow="7665" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>n,Ascending Sorted Time (ms),Descending Sorted Time (ms),Unsorted Time (ms)</t>
   </si>
@@ -2625,6 +2625,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2925,7 +2929,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,183 +3370,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>200</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7">
-        <v>2.0030000000000001</v>
-      </c>
-      <c r="C7">
-        <v>2.0009999999999999</v>
-      </c>
-      <c r="D7">
-        <v>7.9989999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1000</v>
-      </c>
-      <c r="B8">
-        <v>9.6750000000000007</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>32.899000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2000</v>
-      </c>
-      <c r="B9">
-        <v>38.999000000000002</v>
-      </c>
-      <c r="C9">
-        <v>39.512</v>
-      </c>
-      <c r="D9">
-        <v>128.83000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5000</v>
-      </c>
-      <c r="B10">
-        <v>260.96800000000002</v>
-      </c>
-      <c r="C10">
-        <v>257.685</v>
-      </c>
-      <c r="D10">
-        <v>792.71500000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10000</v>
-      </c>
-      <c r="B11">
-        <v>1082.44</v>
-      </c>
-      <c r="C11">
-        <v>1054.6199999999999</v>
-      </c>
-      <c r="D11">
-        <v>3225.57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>20000</v>
-      </c>
-      <c r="B12">
-        <v>4331.2299999999996</v>
-      </c>
-      <c r="C12">
-        <v>4426.3999999999996</v>
-      </c>
-      <c r="D12">
-        <v>12849.1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1_MD/output_data_diagramma.xlsx
+++ b/1_MD/output_data_diagramma.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43a06271df63821a/Documents/Skola/2.kurss/Datu struktūras un algoritmi/Datu-strukturas-un-algoritmi/1_MD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{5C247DA8-929C-4369-AF7D-246CD82F581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F738B064-65F1-42D7-B07B-D9AA82E83620}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{5C247DA8-929C-4369-AF7D-246CD82F581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53B8FD88-C59B-44A0-A2FC-A74A57328AC2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7890" yWindow="7665" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>n,Ascending Sorted Time (ms),Descending Sorted Time (ms),Unsorted Time (ms)</t>
   </si>
@@ -29,13 +28,7 @@
     <t>10,0,0,0</t>
   </si>
   <si>
-    <t>20,0,0,0</t>
-  </si>
-  <si>
     <t>50,0,0,0</t>
-  </si>
-  <si>
-    <t>100,0,0,0</t>
   </si>
   <si>
     <t>n</t>
@@ -50,57 +43,38 @@
     <t>Unsorted Time (ms)</t>
   </si>
   <si>
-    <t>200,0,0,0.998</t>
+    <t>20,0,0.999,0</t>
   </si>
   <si>
-    <t>500,2.003,2.001,7.999</t>
+    <t>100,0,1,0</t>
   </si>
   <si>
-    <t>1000,9.675,10,32.899</t>
+    <t>200,1,2,1</t>
   </si>
   <si>
-    <t>2000,38.999,39.512,128.83</t>
+    <t>500,8.522,8,8.599</t>
   </si>
   <si>
-    <t>5000,260.968,257.685,792.715</t>
+    <t>1000,32.817,33.682,33.024</t>
   </si>
   <si>
-    <t>10000,1082.44,1054.62,3225.57</t>
+    <t>2000,132.287,132.587,131.615</t>
   </si>
   <si>
-    <t>20000,4331.23,4426.4,12849.1</t>
+    <t>5000,818.238,810.446,811.031</t>
   </si>
   <si>
-    <t>y = 4,6182x + 1130,9</t>
+    <t>10000,3263.2,3254.29,3271.1</t>
   </si>
   <si>
-    <t>y = 4,5125x + 1159,2</t>
+    <t>20000,13135.2,13120.8,13066.7</t>
   </si>
   <si>
-    <t>y = 1,5577x + 1121,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Unsorted Time (ms)
-y = 1,5577x + 1121,9
-        Slīpums (m) =  1,5577x
-        Y nogrieznis (b) =  1121,9
-Descending Sorted Time (ms)
-y = 4,5125x + 1159,2
-        Slīpums (m) =  4,5125x
-        Y nogrieznis (b) =  1159,2
-Ascending Sorted Time (ms)
-    y = 4,6182x + 1130,9
-        Slīpums (m) = y = 4,6182x
-        Y nogrieznis (b) = y = 1130,9
- lineāro tuvināšanas koeficientu salīdzinājums:
+    <t xml:space="preserve"> lineāro tuvināšanas koeficientu salīdzinājums:
    Salīdzinot nogāzes:
-    Unsorted Time (ms) vienādojuma  slīpums ir daudz lielāks nekā pārējiem diviem.
-    Descending Sorted Time (ms)  Ascending Sorted Time (ms) vienādojumu slīpumi tuvojas viens otram
+    vienādojumu slīpumi tuvojas viens otram
 Salīdzinot y-partvērumus:
-    Ascending Sorted Time (ms)vienādojuma  Y krustpunkts ir visaugstākais.   
-Unsorted Time (ms) vienādojuma   Y krustpunkts atrodas vidū.
-     Descending Sorted Time (ms) vienādojuma Y krustpunkts ir viszemākais.
+vienādojuma  Y krustpunkts tuvojas viens otram
 Atšķirības starp šiem vienādojumiem ir salīdzinoši nelielas, un izvēle, kuru vienādojumu izmantot, ir atkarīga no datu konteksta un analīzes mērķa, principā esošā mājasdarba analīzes datu ietvarā rezultāti ir ļoti ļoti tuvi un izvēle paliek aiz lietotāja. Bet atšķirības ir un ir  svarīgi apsvērt šo atšķirību nozīmīgumu cita veida datu analīzē kurā lineāro tuvinājumu.
 Salīdzinot datus ar zināmo Bubble sort O() notāciju būtiskas novirzes netiek novērotas.</t>
   </si>
@@ -841,13 +815,111 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.4837515773551825E-3"/>
-                  <c:y val="-1.2201447966204049E-3"/>
+                  <c:x val="7.6145537181567663E-4"/>
+                  <c:y val="-5.3516054404264872E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -889,62 +961,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
@@ -982,25 +998,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9989999999999997</c:v>
+                  <c:v>8.5990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.899000000000001</c:v>
+                  <c:v>33.024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.83000000000001</c:v>
+                  <c:v>131.61500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>792.71500000000003</c:v>
+                  <c:v>811.03099999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3225.57</c:v>
+                  <c:v>3271.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12849.1</c:v>
+                  <c:v>13066.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,8 +1186,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2639431711743737E-2"/>
-                  <c:y val="7.4154128324436727E-3"/>
+                  <c:x val="-0.11031208720695611"/>
+                  <c:y val="5.6980304161723901E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1259,6 +1275,34 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>output_data!$K$2:$K$12</c:f>
@@ -1269,34 +1313,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0009999999999999</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>33.682000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.512</c:v>
+                  <c:v>132.58699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>257.685</c:v>
+                  <c:v>810.44600000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1054.6199999999999</c:v>
+                  <c:v>3254.29</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4426.3999999999996</c:v>
+                  <c:v>13120.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,8 +1538,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11466588405345546"/>
-                  <c:y val="0.14695602488271273"/>
+                  <c:x val="-8.3886736283810201E-3"/>
+                  <c:y val="0.35354851529209991"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1569,6 +1613,48 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>output_data!$J$2:$J$12</c:f>
@@ -1588,25 +1674,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0030000000000001</c:v>
+                  <c:v>8.5220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6750000000000007</c:v>
+                  <c:v>32.817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.999000000000002</c:v>
+                  <c:v>132.28700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>260.96800000000002</c:v>
+                  <c:v>818.23800000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1082.44</c:v>
+                  <c:v>3263.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4331.2299999999996</c:v>
+                  <c:v>13135.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,6 +2022,10 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
         <c:idx val="12"/>
         <c:delete val="1"/>
       </c:legendEntry>
@@ -1952,11 +2042,39 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
+        <c:idx val="16"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="17"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="18"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
         <c:idx val="19"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
+        <c:idx val="20"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="21"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="22"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
         <c:idx val="23"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="24"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -2928,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,6 +3057,7 @@
     <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
     <col min="14" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="67.5703125" customWidth="1"/>
   </cols>
@@ -2948,19 +3067,19 @@
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -2987,7 +3106,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
         <v>20</v>
@@ -2996,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -3007,7 +3126,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
         <v>50</v>
@@ -3027,7 +3146,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -3036,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -3053,13 +3172,13 @@
         <v>200</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3073,13 +3192,13 @@
         <v>500</v>
       </c>
       <c r="J7" s="1">
-        <v>2.0030000000000001</v>
+        <v>8.5220000000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>2.0009999999999999</v>
+        <v>8</v>
       </c>
       <c r="L7" s="1">
-        <v>7.9989999999999997</v>
+        <v>8.5990000000000002</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -3093,13 +3212,13 @@
         <v>1000</v>
       </c>
       <c r="J8" s="1">
-        <v>9.6750000000000007</v>
+        <v>32.817</v>
       </c>
       <c r="K8" s="1">
-        <v>10</v>
+        <v>33.682000000000002</v>
       </c>
       <c r="L8" s="1">
-        <v>32.899000000000001</v>
+        <v>33.024000000000001</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3113,13 +3232,13 @@
         <v>2000</v>
       </c>
       <c r="J9" s="1">
-        <v>38.999000000000002</v>
+        <v>132.28700000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>39.512</v>
+        <v>132.58699999999999</v>
       </c>
       <c r="L9" s="1">
-        <v>128.83000000000001</v>
+        <v>131.61500000000001</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3133,13 +3252,13 @@
         <v>5000</v>
       </c>
       <c r="J10" s="1">
-        <v>260.96800000000002</v>
+        <v>818.23800000000006</v>
       </c>
       <c r="K10" s="1">
-        <v>257.685</v>
+        <v>810.44600000000003</v>
       </c>
       <c r="L10" s="1">
-        <v>792.71500000000003</v>
+        <v>811.03099999999995</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3153,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="J11" s="1">
-        <v>1082.44</v>
+        <v>3263.2</v>
       </c>
       <c r="K11" s="1">
-        <v>1054.6199999999999</v>
+        <v>3254.29</v>
       </c>
       <c r="L11" s="1">
-        <v>3225.57</v>
+        <v>3271.1</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3173,13 +3292,13 @@
         <v>20000</v>
       </c>
       <c r="J12" s="1">
-        <v>4331.2299999999996</v>
+        <v>13135.2</v>
       </c>
       <c r="K12" s="1">
-        <v>4426.3999999999996</v>
+        <v>13120.8</v>
       </c>
       <c r="L12" s="1">
-        <v>12849.1</v>
+        <v>13066.7</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3210,91 +3329,82 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -3366,18 +3476,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>